--- a/data/trans_orig/P5703-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>252320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226770</v>
+        <v>230793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279119</v>
+        <v>276283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4319500388840623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.388210621781708</v>
+        <v>0.3950977348651891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4778288441466477</v>
+        <v>0.4729728752454864</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>432</v>
@@ -765,19 +765,19 @@
         <v>445691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>414485</v>
+        <v>417396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>474735</v>
+        <v>479474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4832218353095084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4493872927725661</v>
+        <v>0.4525440558385619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5147113901752077</v>
+        <v>0.5198495538141332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>676</v>
@@ -786,19 +786,19 @@
         <v>698011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>659826</v>
+        <v>659061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>738182</v>
+        <v>735121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.463340995303798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.437993384876319</v>
+        <v>0.4374859840290464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4900062084708645</v>
+        <v>0.487974858115152</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>125138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104303</v>
+        <v>104354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146485</v>
+        <v>143754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2142250749967637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1785573094213634</v>
+        <v>0.1786452624163596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2507706965132044</v>
+        <v>0.2460950241464164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>142</v>
@@ -836,19 +836,19 @@
         <v>150103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128216</v>
+        <v>128557</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174137</v>
+        <v>176225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1627432147321704</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.139012456993613</v>
+        <v>0.1393822340487514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888002749131715</v>
+        <v>0.1910644438743503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -857,19 +857,19 @@
         <v>275241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247117</v>
+        <v>245000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>306960</v>
+        <v>305608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1827055078147813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1640366704994164</v>
+        <v>0.1626312842299639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2037607197549417</v>
+        <v>0.2028630692058954</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>135847</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116268</v>
+        <v>117801</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157136</v>
+        <v>156275</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2325589084800429</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1990418023601132</v>
+        <v>0.2016660781417242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2690040284347422</v>
+        <v>0.2675295162429534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -907,19 +907,19 @@
         <v>171411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>149088</v>
+        <v>148870</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>198055</v>
+        <v>195016</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1858447157623285</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1616420916381913</v>
+        <v>0.1614062942453598</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2147330819317907</v>
+        <v>0.2114375030503014</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>302</v>
@@ -928,19 +928,19 @@
         <v>307258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>277490</v>
+        <v>276861</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>340379</v>
+        <v>341417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2039583270684438</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1841980724349995</v>
+        <v>0.1837810258754672</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2259443045426443</v>
+        <v>0.2266333091573289</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>61980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48609</v>
+        <v>49126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78139</v>
+        <v>78602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1061041397660349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08321396921268795</v>
+        <v>0.08409959422438512</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1337669625059741</v>
+        <v>0.1345605531533258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -978,19 +978,19 @@
         <v>128483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108624</v>
+        <v>107873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150523</v>
+        <v>150488</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1393027148744664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1177704447648032</v>
+        <v>0.1169571587931616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1631979752860092</v>
+        <v>0.1631596494508127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>184</v>
@@ -999,19 +999,19 @@
         <v>190463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164511</v>
+        <v>163040</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217076</v>
+        <v>216085</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1264298372660524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.109203000336567</v>
+        <v>0.1082261934031011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1440952265996675</v>
+        <v>0.1434373007723923</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>8857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4369</v>
+        <v>3676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18774</v>
+        <v>17336</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01516183787309629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007479384823370555</v>
+        <v>0.006292718632650648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03213900342014233</v>
+        <v>0.02967855027480413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1049,19 +1049,19 @@
         <v>26644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17229</v>
+        <v>17265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38356</v>
+        <v>38776</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02888751932152621</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0186799513402796</v>
+        <v>0.01871900146639911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.041586371776966</v>
+        <v>0.04204170479421862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1070,19 +1070,19 @@
         <v>35501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25259</v>
+        <v>25118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50782</v>
+        <v>49379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02356533254692446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0167668962601685</v>
+        <v>0.01667339226647446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03370891698773239</v>
+        <v>0.03277791236310753</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>508109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>479338</v>
+        <v>475761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>541668</v>
+        <v>543296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4713903582491943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4446989324854774</v>
+        <v>0.4413798219627564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5025245512041676</v>
+        <v>0.5040346064750004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>452</v>
@@ -1195,19 +1195,19 @@
         <v>462496</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>429532</v>
+        <v>431436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>495706</v>
+        <v>493961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4373329049041316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4061621083759134</v>
+        <v>0.4079627730717959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4687361896960306</v>
+        <v>0.4670861063361889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>945</v>
@@ -1216,19 +1216,19 @@
         <v>970605</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>921200</v>
+        <v>924413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1016772</v>
+        <v>1019131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.454523958101447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4313883266940005</v>
+        <v>0.4328927982564891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4761435146907173</v>
+        <v>0.4772481382696949</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>321455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>293880</v>
+        <v>290215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355102</v>
+        <v>348941</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2982246296391368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2726425466720122</v>
+        <v>0.2692422398768622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3294405536863704</v>
+        <v>0.3237244080552555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>280</v>
@@ -1266,19 +1266,19 @@
         <v>284386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256372</v>
+        <v>257296</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314289</v>
+        <v>313711</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2689137242547984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2424234235580422</v>
+        <v>0.2432972426507222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2971894974151886</v>
+        <v>0.2966424884925039</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>597</v>
@@ -1287,19 +1287,19 @@
         <v>605841</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>564791</v>
+        <v>559799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646466</v>
+        <v>647198</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2837088802113635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2644855995893131</v>
+        <v>0.2621477477401101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3027330303024245</v>
+        <v>0.3030761421762408</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>184036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>161249</v>
+        <v>160966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>209447</v>
+        <v>210020</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1707369555771002</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1495961685231212</v>
+        <v>0.1493334299951721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.194310869026784</v>
+        <v>0.1948432341537387</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -1337,19 +1337,19 @@
         <v>199695</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174211</v>
+        <v>174454</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>227675</v>
+        <v>228814</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.188830331642893</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1647325929560023</v>
+        <v>0.1649624424592659</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2152882026680013</v>
+        <v>0.216364484758929</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>378</v>
@@ -1358,19 +1358,19 @@
         <v>383732</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>350400</v>
+        <v>352645</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>419525</v>
+        <v>418782</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1796974059565639</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1640884752816315</v>
+        <v>0.1651399780522677</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1964592186544207</v>
+        <v>0.1961110045204722</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>51658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39171</v>
+        <v>38079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67464</v>
+        <v>67007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04792474932460414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03634046741998409</v>
+        <v>0.03532721812315286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06258890716426561</v>
+        <v>0.0621648300563824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1408,19 +1408,19 @@
         <v>87524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70641</v>
+        <v>71687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107814</v>
+        <v>106299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.082762411268923</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06679741104504247</v>
+        <v>0.06778639816937795</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1019476838982944</v>
+        <v>0.1005159778306235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -1429,19 +1429,19 @@
         <v>139182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117701</v>
+        <v>116675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164043</v>
+        <v>162182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06517753509844153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05511826825939502</v>
+        <v>0.05463765592006667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07681942073691811</v>
+        <v>0.07594796416187562</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>12636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6226</v>
+        <v>6741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22242</v>
+        <v>22716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01172330720996461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005775628321321935</v>
+        <v>0.006254237620938461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02063442806643221</v>
+        <v>0.02107466414907713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1479,19 +1479,19 @@
         <v>23436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15206</v>
+        <v>14886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36188</v>
+        <v>36098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02216062792925408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01437831505003381</v>
+        <v>0.01407645901701859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03421934226030392</v>
+        <v>0.03413425121830196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1500,19 +1500,19 @@
         <v>36072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25109</v>
+        <v>24696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50359</v>
+        <v>50617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01689222063218412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01175839268942305</v>
+        <v>0.0115646809179605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02358243887296076</v>
+        <v>0.02370332641313337</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>521526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>488771</v>
+        <v>486652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>554101</v>
+        <v>555847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4657131638567654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4364635140089789</v>
+        <v>0.43457202232153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4948019549322112</v>
+        <v>0.4963612834617298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>411</v>
@@ -1625,19 +1625,19 @@
         <v>413334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>378596</v>
+        <v>382654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>445527</v>
+        <v>447194</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.415854400591396</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3809043978297026</v>
+        <v>0.3849871252663713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4482436216231548</v>
+        <v>0.4499208368838596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>920</v>
@@ -1646,19 +1646,19 @@
         <v>934860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>889342</v>
+        <v>886384</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>978233</v>
+        <v>977369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4422686545803777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4207346033732801</v>
+        <v>0.4193355471740946</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4627880329523572</v>
+        <v>0.4623789844645212</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>335300</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>303087</v>
+        <v>306825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>365098</v>
+        <v>368449</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2994171113898095</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2706516306169801</v>
+        <v>0.2739892569303881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3260257762107923</v>
+        <v>0.3290187580995925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>331</v>
@@ -1696,19 +1696,19 @@
         <v>333749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>302485</v>
+        <v>306522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>365415</v>
+        <v>364080</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3357836388989392</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3043287325766681</v>
+        <v>0.3083909934221521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3676425881974856</v>
+        <v>0.3662996272166785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>665</v>
@@ -1717,19 +1717,19 @@
         <v>669049</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>627476</v>
+        <v>630786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>713713</v>
+        <v>712113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.316517322780933</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2968495592757401</v>
+        <v>0.2984157745099478</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3376473401302948</v>
+        <v>0.3368904482925497</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>186788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>163332</v>
+        <v>163652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213015</v>
+        <v>213079</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1667981501264846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1458524712373912</v>
+        <v>0.1461386375189812</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.190218418315736</v>
+        <v>0.190275360040992</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>184</v>
@@ -1767,19 +1767,19 @@
         <v>188184</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>164686</v>
+        <v>163557</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217979</v>
+        <v>215067</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1893312346164615</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1656903706577544</v>
+        <v>0.1645539565465517</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2193075120331026</v>
+        <v>0.2163779768471677</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>370</v>
@@ -1788,19 +1788,19 @@
         <v>374972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>340414</v>
+        <v>340512</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>411078</v>
+        <v>410289</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1773936216896114</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1610447918354237</v>
+        <v>0.1610911095320905</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1944749118217036</v>
+        <v>0.194101701767691</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>67179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52058</v>
+        <v>52295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85983</v>
+        <v>84250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05998939168555643</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04648667401641506</v>
+        <v>0.04669818863281521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07678149040741501</v>
+        <v>0.07523372121554475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1838,19 +1838,19 @@
         <v>50789</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37072</v>
+        <v>38168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65840</v>
+        <v>65361</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05109833172938968</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03729783136424174</v>
+        <v>0.03840075893767257</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06624116172498923</v>
+        <v>0.0657595898947977</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -1859,19 +1859,19 @@
         <v>117967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97548</v>
+        <v>97993</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141444</v>
+        <v>140926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05580865145119022</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04614853992402724</v>
+        <v>0.0463592617118122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06691503614207987</v>
+        <v>0.06666987116053559</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>9051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4302</v>
+        <v>4447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16678</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008082182941384023</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003841574701367687</v>
+        <v>0.003970895815512425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01489347454098925</v>
+        <v>0.01518107002050149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1909,19 +1909,19 @@
         <v>7884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3105</v>
+        <v>3127</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14982</v>
+        <v>14778</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007932394163813587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003124022164077959</v>
+        <v>0.003146047169218892</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01507376248161113</v>
+        <v>0.0148679605413715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1930,19 +1930,19 @@
         <v>16935</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9721</v>
+        <v>10125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26772</v>
+        <v>25550</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008011749497887683</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004598796929710531</v>
+        <v>0.004789830116494043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01266540000528569</v>
+        <v>0.0120873079852586</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>225030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203189</v>
+        <v>204753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>246234</v>
+        <v>245209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5041432611589141</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4552111007193442</v>
+        <v>0.4587145233201064</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5516455404073668</v>
+        <v>0.5493490390231724</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -2055,19 +2055,19 @@
         <v>177875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159509</v>
+        <v>160468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>196397</v>
+        <v>195797</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.521385861200103</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4675505579007471</v>
+        <v>0.4703637927926085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5756768248028089</v>
+        <v>0.5739176411298959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>397</v>
@@ -2076,19 +2076,19 @@
         <v>402905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374140</v>
+        <v>373893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>429512</v>
+        <v>432264</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5116128479290044</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4750863943566824</v>
+        <v>0.4747731996327209</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5453979330369445</v>
+        <v>0.5488925954552292</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>123193</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104781</v>
+        <v>105987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>145409</v>
+        <v>144219</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2759944455815092</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2347443599689488</v>
+        <v>0.237445243178146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3257638861807673</v>
+        <v>0.3230977564255044</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2126,19 +2126,19 @@
         <v>92092</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77547</v>
+        <v>77501</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109921</v>
+        <v>109204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2699386961768753</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2273050573891695</v>
+        <v>0.2271701965296154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3222001496571654</v>
+        <v>0.3200973398221361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>216</v>
@@ -2147,19 +2147,19 @@
         <v>215285</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191724</v>
+        <v>190461</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>242540</v>
+        <v>241371</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2733710624764217</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2434526208068215</v>
+        <v>0.2418485375215433</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3079799374246677</v>
+        <v>0.3064955778037181</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>73232</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57762</v>
+        <v>58759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90935</v>
+        <v>90144</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1640640517561147</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1294068359414599</v>
+        <v>0.1316396042472119</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2037256711908245</v>
+        <v>0.2019537164802585</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -2197,19 +2197,19 @@
         <v>50640</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38604</v>
+        <v>38562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64456</v>
+        <v>65066</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.148435589391018</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1131546944908276</v>
+        <v>0.1130320010575717</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1889341790933523</v>
+        <v>0.190720087239281</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>119</v>
@@ -2218,19 +2218,19 @@
         <v>123872</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>104957</v>
+        <v>104216</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>146758</v>
+        <v>144729</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1572937180802004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1332750848567258</v>
+        <v>0.1323348401590205</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1863541823293745</v>
+        <v>0.1837780090217931</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>19201</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11415</v>
+        <v>11131</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32022</v>
+        <v>29617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04301723638957367</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02557392451655829</v>
+        <v>0.02493768120012763</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07173918583270869</v>
+        <v>0.06635269149771733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2268,19 +2268,19 @@
         <v>17683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10548</v>
+        <v>10881</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27398</v>
+        <v>27410</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05183097958817481</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03091736530586846</v>
+        <v>0.03189319769064203</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0803075679497305</v>
+        <v>0.08034355566383408</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -2289,19 +2289,19 @@
         <v>36884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26198</v>
+        <v>26695</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51119</v>
+        <v>51149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04683539719095972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0332663579539666</v>
+        <v>0.03389751620720988</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06491097986843651</v>
+        <v>0.06494946234595191</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>5705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1728</v>
+        <v>1796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12730</v>
+        <v>12634</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01278100511388843</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003871403960530828</v>
+        <v>0.004022621201270924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02851985223168139</v>
+        <v>0.0283037596619559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2339,19 +2339,19 @@
         <v>2869</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7995</v>
+        <v>8463</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008408873643828987</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002549094426266212</v>
+        <v>0.002541152879944239</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02343425181435364</v>
+        <v>0.02480591332333429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2360,19 +2360,19 @@
         <v>8574</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3656</v>
+        <v>3808</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16353</v>
+        <v>15741</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01088697432341375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00464256240540661</v>
+        <v>0.00483554190308005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02076466251026566</v>
+        <v>0.01998802398219243</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1506985</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1453738</v>
+        <v>1451525</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1570074</v>
+        <v>1564422</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4668130582430183</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4503188593040664</v>
+        <v>0.4496333247776085</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4863558446111168</v>
+        <v>0.484605234796736</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1474</v>
@@ -2485,19 +2485,19 @@
         <v>1499397</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1440129</v>
+        <v>1442478</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1549812</v>
+        <v>1555689</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4523109912067881</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4344321128404429</v>
+        <v>0.4351406624945066</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4675192937500521</v>
+        <v>0.4692922709983492</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2938</v>
@@ -2506,19 +2506,19 @@
         <v>3006382</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2916537</v>
+        <v>2925230</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3083795</v>
+        <v>3087859</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4594659149417894</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4457349022463086</v>
+        <v>0.4470634345124888</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4712970114878657</v>
+        <v>0.4719180707980503</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>905086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>855491</v>
+        <v>854052</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>958398</v>
+        <v>952830</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2803650758129669</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2650023276559367</v>
+        <v>0.2645563907113111</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2968792002331657</v>
+        <v>0.2951545121527941</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>845</v>
@@ -2556,19 +2556,19 @@
         <v>860330</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>809068</v>
+        <v>809333</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>914835</v>
+        <v>906855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2595289494308344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2440649785584793</v>
+        <v>0.244144838131248</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2759709531154959</v>
+        <v>0.2735636306194486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1742</v>
@@ -2577,19 +2577,19 @@
         <v>1765416</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1690528</v>
+        <v>1693387</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1838338</v>
+        <v>1832956</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2698089250249729</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2583636794735067</v>
+        <v>0.2588006683294362</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2809534804429534</v>
+        <v>0.2801309856002061</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>579903</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>535673</v>
+        <v>535073</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>625420</v>
+        <v>623334</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1796344897033638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1659334725887546</v>
+        <v>0.165747616408639</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1937340806575152</v>
+        <v>0.1930877963016088</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>588</v>
@@ -2627,19 +2627,19 @@
         <v>609930</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>566653</v>
+        <v>562063</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>654718</v>
+        <v>651532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1839926213825644</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1709375917304529</v>
+        <v>0.1695529486282347</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1975034033321705</v>
+        <v>0.1965424700819997</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1169</v>
@@ -2648,19 +2648,19 @@
         <v>1189833</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1132484</v>
+        <v>1127868</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1253827</v>
+        <v>1256126</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1818424382594364</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1730777148229564</v>
+        <v>0.1723722859105009</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1916226290576888</v>
+        <v>0.1919739234921946</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>200018</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>173991</v>
+        <v>173550</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>230136</v>
+        <v>230382</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06195869874090625</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05389668744661336</v>
+        <v>0.05376002217241903</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07128841270661193</v>
+        <v>0.07136469436150135</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -2698,19 +2698,19 @@
         <v>284479</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>254037</v>
+        <v>253465</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>318218</v>
+        <v>316813</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08581652747411898</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0766333090152333</v>
+        <v>0.07646069932855674</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09599432191514279</v>
+        <v>0.09557028046128413</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>462</v>
@@ -2719,19 +2719,19 @@
         <v>484497</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>444579</v>
+        <v>443620</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>526863</v>
+        <v>525422</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0740457264812398</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06794506128475655</v>
+        <v>0.06779852391289873</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08052054288208967</v>
+        <v>0.08030038202546683</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>36249</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24716</v>
+        <v>23862</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50741</v>
+        <v>51515</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01122867749974472</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007656230430596476</v>
+        <v>0.00739172446104566</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01571780629485067</v>
+        <v>0.01595765351568222</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>57</v>
@@ -2769,19 +2769,19 @@
         <v>60833</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47227</v>
+        <v>46716</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80436</v>
+        <v>77678</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01835091050569409</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01424648940029922</v>
+        <v>0.01409237484198025</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0242644067338655</v>
+        <v>0.02343236515933958</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2790,19 +2790,19 @@
         <v>97082</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>76634</v>
+        <v>79321</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>117607</v>
+        <v>119848</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0148369952925616</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01171202385784702</v>
+        <v>0.01212270004142783</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0179738258523861</v>
+        <v>0.01831638928389699</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>472496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>441294</v>
+        <v>438882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>503101</v>
+        <v>504515</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4552992947644935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4252323025856684</v>
+        <v>0.422908000712829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4847896637117629</v>
+        <v>0.4861528373310552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>406</v>
@@ -3155,19 +3155,19 @@
         <v>438140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>403720</v>
+        <v>401879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>471007</v>
+        <v>472077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3926206139560272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3617764745548925</v>
+        <v>0.3601270757350415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4220730795927707</v>
+        <v>0.4230317594002688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>848</v>
@@ -3176,19 +3176,19 @@
         <v>910636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>867788</v>
+        <v>862528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>958516</v>
+        <v>962248</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4228225341466613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4029275716663991</v>
+        <v>0.4004850589577689</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4450539951596645</v>
+        <v>0.4467867547330052</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>257725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>228745</v>
+        <v>231745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286043</v>
+        <v>287226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2483450220560002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2204192420214299</v>
+        <v>0.2233103568642733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2756322728028196</v>
+        <v>0.2767718586480702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -3226,19 +3226,19 @@
         <v>285754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255869</v>
+        <v>256705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315812</v>
+        <v>320112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.25606614190865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2292865268322633</v>
+        <v>0.2300354476699198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2830013153722676</v>
+        <v>0.2868548993427623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>505</v>
@@ -3247,19 +3247,19 @@
         <v>543479</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>501829</v>
+        <v>500439</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585101</v>
+        <v>584821</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2523456959362045</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2330070129451016</v>
+        <v>0.2323617532161007</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2716715871531968</v>
+        <v>0.2715414049363217</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>218406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>193631</v>
+        <v>192853</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>245338</v>
+        <v>247980</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2104568511831651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1865832395738507</v>
+        <v>0.185833560505473</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2364082733671529</v>
+        <v>0.2389540583791477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -3297,19 +3297,19 @@
         <v>244240</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>215696</v>
+        <v>219121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>270943</v>
+        <v>272683</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2188652987920615</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1932872122946416</v>
+        <v>0.1963564716021916</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2427944678176623</v>
+        <v>0.2443536687328023</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>430</v>
@@ -3318,19 +3318,19 @@
         <v>462646</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>428112</v>
+        <v>423620</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>505826</v>
+        <v>499827</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2148136617707426</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1987788447806268</v>
+        <v>0.1966931767065855</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2348626547858044</v>
+        <v>0.2320774885551995</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>72670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56115</v>
+        <v>57522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90016</v>
+        <v>94026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07002534458024887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05407247829027512</v>
+        <v>0.05542857170417433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08673937650188454</v>
+        <v>0.09060391840953134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -3368,19 +3368,19 @@
         <v>97427</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79567</v>
+        <v>79566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118500</v>
+        <v>119778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08730469950545917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07130094518080762</v>
+        <v>0.07129943116466801</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1061887909384569</v>
+        <v>0.107333915634333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>156</v>
@@ -3389,19 +3389,19 @@
         <v>170097</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146426</v>
+        <v>146028</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>196356</v>
+        <v>199984</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07897858779306413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06798798055267645</v>
+        <v>0.06780289837896897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09117109180936596</v>
+        <v>0.09285580047375802</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>16473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10381</v>
+        <v>9872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27581</v>
+        <v>27043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01587348741609229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01000288204858911</v>
+        <v>0.009512230826135148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02657758699391572</v>
+        <v>0.02605855521981832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -3439,19 +3439,19 @@
         <v>50377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37530</v>
+        <v>38137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66106</v>
+        <v>66238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04514324583780218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03363089468832414</v>
+        <v>0.0341744601249474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05923780103430079</v>
+        <v>0.05935677355203756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -3460,19 +3460,19 @@
         <v>66850</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51863</v>
+        <v>51406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>85752</v>
+        <v>86037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03103952035332747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0240807606671441</v>
+        <v>0.0238687657732201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03981576771118086</v>
+        <v>0.03994842628831967</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>433015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>403146</v>
+        <v>402353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>468697</v>
+        <v>465037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4440869414532813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4134541584882938</v>
+        <v>0.4126408978314761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4806807374535894</v>
+        <v>0.4769270321114124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>409</v>
@@ -3585,19 +3585,19 @@
         <v>436811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>403189</v>
+        <v>405399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>469866</v>
+        <v>467495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3999792278060891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3691925900623299</v>
+        <v>0.3712160667958579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4302468556751216</v>
+        <v>0.4280759138024287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>827</v>
@@ -3606,19 +3606,19 @@
         <v>869826</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>825380</v>
+        <v>820820</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>918286</v>
+        <v>917163</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4207846792376407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3992832938494726</v>
+        <v>0.3970777262035074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4442275765161284</v>
+        <v>0.4436843323946839</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>295803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264783</v>
+        <v>265551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>324952</v>
+        <v>328344</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3033666314121857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2715526373746853</v>
+        <v>0.272340255601397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3332605947529177</v>
+        <v>0.3367394249895309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -3656,19 +3656,19 @@
         <v>372740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>337501</v>
+        <v>342054</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403560</v>
+        <v>405645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3413109170915039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.309043377792354</v>
+        <v>0.3132122477268771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3695323552834888</v>
+        <v>0.3714413243315162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>631</v>
@@ -3677,19 +3677,19 @@
         <v>668544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629211</v>
+        <v>626638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>709776</v>
+        <v>710430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3234127326804824</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3043853317551661</v>
+        <v>0.3031407647278501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3433590351878689</v>
+        <v>0.3436757431886864</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>192784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>167926</v>
+        <v>167227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222186</v>
+        <v>221334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1977130080834625</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.172219704393947</v>
+        <v>0.1715022925785949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2278665359829014</v>
+        <v>0.2269936051575005</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -3727,19 +3727,19 @@
         <v>212596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>186888</v>
+        <v>187126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>241355</v>
+        <v>239769</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1946701592937951</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1711300436038336</v>
+        <v>0.1713479955041118</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2210037447282744</v>
+        <v>0.2195521843988974</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>369</v>
@@ -3748,19 +3748,19 @@
         <v>405380</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>368335</v>
+        <v>365547</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>441261</v>
+        <v>443855</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.196105460230347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1781846049611397</v>
+        <v>0.1768361222697872</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2134631898620488</v>
+        <v>0.2147179421956351</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>37646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26348</v>
+        <v>26931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53219</v>
+        <v>53447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03860842032252328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02702217210904849</v>
+        <v>0.02761912338997622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05458004103510294</v>
+        <v>0.05481314027445066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3798,19 +3798,19 @@
         <v>51546</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38438</v>
+        <v>37285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67709</v>
+        <v>66341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04719973418096343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03519722314435893</v>
+        <v>0.03414103035248355</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06200016692855651</v>
+        <v>0.06074671001752893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -3819,19 +3819,19 @@
         <v>89192</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68562</v>
+        <v>72183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109582</v>
+        <v>111428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04314724203311049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03316735666239673</v>
+        <v>0.03491925377091693</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05301097310428009</v>
+        <v>0.05390389385451498</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>15820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9705</v>
+        <v>8806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28783</v>
+        <v>26872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01622499872854724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009952979643041806</v>
+        <v>0.009031576163006828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02951853151392971</v>
+        <v>0.02755880188462153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -3869,19 +3869,19 @@
         <v>18391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11263</v>
+        <v>11224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27641</v>
+        <v>28428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01683996162764852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01031329974065883</v>
+        <v>0.01027797216407052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02531012895389744</v>
+        <v>0.02603065563982816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -3890,19 +3890,19 @@
         <v>34211</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23615</v>
+        <v>24343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48006</v>
+        <v>47789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01654988581841935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01142416137443636</v>
+        <v>0.01177623134808029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02322338662278473</v>
+        <v>0.02311841459949386</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>424909</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>397760</v>
+        <v>389825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>458118</v>
+        <v>454847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4805801945243753</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4498737944868511</v>
+        <v>0.4408998389351498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5181403327269762</v>
+        <v>0.5144403457081489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>376</v>
@@ -4015,19 +4015,19 @@
         <v>397980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366130</v>
+        <v>370750</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>425176</v>
+        <v>428172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.455415390514072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4189691328984844</v>
+        <v>0.42425641562974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4865366162551265</v>
+        <v>0.489965115304053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>779</v>
@@ -4036,19 +4036,19 @@
         <v>822889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>779222</v>
+        <v>779339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>866330</v>
+        <v>865785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.468071334392737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4432329823206892</v>
+        <v>0.4432996847949104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4927813870841895</v>
+        <v>0.4924716448941587</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>290596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>262439</v>
+        <v>262587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>318618</v>
+        <v>320801</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3286692011409796</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.296823914110427</v>
+        <v>0.2969906067308227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3603631225644883</v>
+        <v>0.3628317647113087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>296</v>
@@ -4086,19 +4086,19 @@
         <v>317867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>290518</v>
+        <v>289560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>348623</v>
+        <v>346849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3637407458417769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3324444412380779</v>
+        <v>0.3313491813003058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3989352910604805</v>
+        <v>0.3969056772493263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>563</v>
@@ -4107,19 +4107,19 @@
         <v>608462</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>571316</v>
+        <v>565385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>650008</v>
+        <v>651382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3461024800603448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3249729019596942</v>
+        <v>0.3215993353373771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3697343196176029</v>
+        <v>0.370516014775959</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>131487</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>110633</v>
+        <v>109812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>153873</v>
+        <v>153306</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.148714887661557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1251281242200586</v>
+        <v>0.1241994772643745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1740332754987057</v>
+        <v>0.1733917942985224</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>116</v>
@@ -4157,19 +4157,19 @@
         <v>125075</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105699</v>
+        <v>103222</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>148470</v>
+        <v>147753</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1431253133100163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.12095337982874</v>
+        <v>0.1181182572589942</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1698963811498856</v>
+        <v>0.1690761878615835</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>239</v>
@@ -4178,19 +4178,19 @@
         <v>256562</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>226151</v>
+        <v>225575</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>286718</v>
+        <v>284973</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.145936435513462</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1286381111279224</v>
+        <v>0.1283105968675579</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1630893173258277</v>
+        <v>0.1620967209782092</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>30167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20934</v>
+        <v>20225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42362</v>
+        <v>42793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03411907618313454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02367687139583126</v>
+        <v>0.02287447022657378</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04791249109901526</v>
+        <v>0.04839937225771485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -4228,19 +4228,19 @@
         <v>20690</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12957</v>
+        <v>13146</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30968</v>
+        <v>31836</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0236753929718575</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01482715717829611</v>
+        <v>0.01504374460603783</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03543769885244646</v>
+        <v>0.03643006050930648</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -4249,19 +4249,19 @@
         <v>50856</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38514</v>
+        <v>38081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67189</v>
+        <v>66376</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02892775530117907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02190712009521175</v>
+        <v>0.02166105050094946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03821818497268748</v>
+        <v>0.03775546831283733</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>7000</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2942</v>
+        <v>2893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16878</v>
+        <v>15323</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007916640489953497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003327249915597938</v>
+        <v>0.00327244565982879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01908990332944494</v>
+        <v>0.01733108831695708</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4299,19 +4299,19 @@
         <v>12272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6914</v>
+        <v>6923</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20464</v>
+        <v>20506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0140431573622773</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007912050163690022</v>
+        <v>0.007921752449392902</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02341734047422575</v>
+        <v>0.02346549317977575</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -4320,19 +4320,19 @@
         <v>19272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11202</v>
+        <v>11908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30387</v>
+        <v>30897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01096199473227718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006372146262550762</v>
+        <v>0.006773239161779548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01728463274166988</v>
+        <v>0.01757444987675357</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>274248</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>250231</v>
+        <v>250734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>296222</v>
+        <v>296789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5488054092979524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5007428028826829</v>
+        <v>0.5017499352350491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5927764536605465</v>
+        <v>0.5939125479443084</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>228</v>
@@ -4445,19 +4445,19 @@
         <v>247964</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>225044</v>
+        <v>225936</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>268401</v>
+        <v>270941</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5523649505329704</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5013090626023785</v>
+        <v>0.5032962761278374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5978898274325091</v>
+        <v>0.6035483268382011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>481</v>
@@ -4466,19 +4466,19 @@
         <v>522212</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>490472</v>
+        <v>487155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>553449</v>
+        <v>552327</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5504898596130904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5170310271418391</v>
+        <v>0.513534289131753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5834185096823057</v>
+        <v>0.5822350012906524</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>130138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>110668</v>
+        <v>110181</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153446</v>
+        <v>152847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2604228655419126</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2214614352885518</v>
+        <v>0.2204852241628597</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3070655593463518</v>
+        <v>0.3058653759968532</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -4516,19 +4516,19 @@
         <v>117990</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>98268</v>
+        <v>98917</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>138373</v>
+        <v>138273</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2628356174812717</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2189023017177493</v>
+        <v>0.2203472003658936</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3082392203276417</v>
+        <v>0.3080168954101788</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>226</v>
@@ -4537,19 +4537,19 @@
         <v>248129</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222641</v>
+        <v>217945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>278232</v>
+        <v>275729</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.261564630869596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.234696507592779</v>
+        <v>0.2297469877015713</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2932983106729494</v>
+        <v>0.2906601194269445</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>69987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54202</v>
+        <v>54125</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89017</v>
+        <v>88657</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1400518605186849</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1084639779095453</v>
+        <v>0.108310450067264</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1781339618139273</v>
+        <v>0.1774128160819073</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -4587,19 +4587,19 @@
         <v>59788</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47088</v>
+        <v>46723</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76264</v>
+        <v>75848</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1331836906208426</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1048931885902143</v>
+        <v>0.1040809132784627</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1698860531960412</v>
+        <v>0.1689596860719114</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>117</v>
@@ -4608,19 +4608,19 @@
         <v>129774</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>108106</v>
+        <v>108371</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155074</v>
+        <v>152988</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1368016970327201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1139597561055414</v>
+        <v>0.1142395622925242</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.163470821336225</v>
+        <v>0.1612721032420454</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>17584</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9951</v>
+        <v>10447</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29465</v>
+        <v>29476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03518746580559396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01991258344749387</v>
+        <v>0.02090666134094923</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05896371563664632</v>
+        <v>0.05898458311017683</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -4658,19 +4658,19 @@
         <v>15371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8389</v>
+        <v>8805</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24283</v>
+        <v>25011</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.034241293545806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01868719863420502</v>
+        <v>0.01961368080689472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0540933405266756</v>
+        <v>0.0557153697816488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -4679,19 +4679,19 @@
         <v>32955</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22725</v>
+        <v>22288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46697</v>
+        <v>45798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03473971704923869</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02395508147745589</v>
+        <v>0.02349478244657349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04922553535646434</v>
+        <v>0.04827846700531404</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>7762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3224</v>
+        <v>3148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17191</v>
+        <v>15451</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01553239883585616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006452595860570689</v>
+        <v>0.006299729526918447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03440063439197098</v>
+        <v>0.03091910130030235</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4729,19 +4729,19 @@
         <v>7800</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3887</v>
+        <v>2938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16503</v>
+        <v>15889</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01737444781910933</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008657794467601305</v>
+        <v>0.006543704535026934</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03676105367813205</v>
+        <v>0.03539546557920641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4750,19 +4750,19 @@
         <v>15561</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8512</v>
+        <v>9119</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25536</v>
+        <v>26647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01640409543535481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00897273165828576</v>
+        <v>0.00961262438095976</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02691892304313443</v>
+        <v>0.02808964211705539</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1604669</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1548935</v>
+        <v>1542846</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1667656</v>
+        <v>1663299</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4724176791666432</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4560095395190029</v>
+        <v>0.454216745529685</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4909611988507853</v>
+        <v>0.4896785000228458</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1419</v>
@@ -4875,19 +4875,19 @@
         <v>1520894</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1458180</v>
+        <v>1463528</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1581125</v>
+        <v>1581494</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4307485552348624</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4129864682393413</v>
+        <v>0.4145012924226981</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4478071078261236</v>
+        <v>0.4479115775521667</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2935</v>
@@ -4896,19 +4896,19 @@
         <v>3125563</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3039131</v>
+        <v>3039734</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3210635</v>
+        <v>3220243</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4511798123942142</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4387031162427144</v>
+        <v>0.4387901997142976</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4634600038522931</v>
+        <v>0.464846984272907</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>974262</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>924755</v>
+        <v>921326</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1028258</v>
+        <v>1029270</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2868247218371873</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2722495937023346</v>
+        <v>0.2712400442317278</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3027209889052285</v>
+        <v>0.3030190285401428</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1014</v>
@@ -4946,19 +4946,19 @@
         <v>1094351</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1037183</v>
+        <v>1038903</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1153271</v>
+        <v>1147876</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3099427279530086</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2937514670167045</v>
+        <v>0.2942387224919142</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3266299492885372</v>
+        <v>0.3251022215066108</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1925</v>
@@ -4967,19 +4967,19 @@
         <v>2068613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1996479</v>
+        <v>1991296</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2153194</v>
+        <v>2148846</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2986074781710095</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2881947556452996</v>
+        <v>0.2874466182066351</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3108167495037248</v>
+        <v>0.3101891269166049</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>612664</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>560447</v>
+        <v>567441</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>658354</v>
+        <v>654447</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1803694136175435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1649967981658505</v>
+        <v>0.1670557978364514</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1938206716639144</v>
+        <v>0.1926704612714709</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>590</v>
@@ -5017,19 +5017,19 @@
         <v>641699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>593658</v>
+        <v>592242</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>692501</v>
+        <v>683344</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1817422834452271</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1681362494771472</v>
+        <v>0.1677351754500655</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1961306311104478</v>
+        <v>0.1935372057558028</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1155</v>
@@ -5038,19 +5038,19 @@
         <v>1254363</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1190482</v>
+        <v>1186596</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1322148</v>
+        <v>1316796</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1810691361877604</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1718479443325601</v>
+        <v>0.1712868876803886</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1908540987519588</v>
+        <v>0.1900815445220025</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>158067</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>134601</v>
+        <v>132487</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>184652</v>
+        <v>183618</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04653512284013333</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03962690776243171</v>
+        <v>0.03900440688015862</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05436188205347416</v>
+        <v>0.05405748435476889</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>169</v>
@@ -5088,19 +5088,19 @@
         <v>185034</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>160565</v>
+        <v>157726</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>215335</v>
+        <v>213832</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05240529756860547</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04547519488091176</v>
+        <v>0.04467120320240518</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06098734975677178</v>
+        <v>0.06056164984554904</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>316</v>
@@ -5109,19 +5109,19 @@
         <v>343100</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>307265</v>
+        <v>306243</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>380276</v>
+        <v>379496</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04952702612608376</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04435421704722339</v>
+        <v>0.04420671088936895</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05489336308365023</v>
+        <v>0.05478075620495253</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>47055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33926</v>
+        <v>33561</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>65960</v>
+        <v>64449</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01385306253849259</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009987990626472485</v>
+        <v>0.009880412793721628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01941876793738329</v>
+        <v>0.01897405253034892</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>83</v>
@@ -5159,19 +5159,19 @@
         <v>88839</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>72119</v>
+        <v>71832</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>108227</v>
+        <v>109281</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02516113579829647</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02042559728874533</v>
+        <v>0.02034440836107718</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0306520128133423</v>
+        <v>0.03095063119822577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>125</v>
@@ -5180,19 +5180,19 @@
         <v>135894</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>113424</v>
+        <v>111959</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>161958</v>
+        <v>160152</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01961654712093214</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01637294780190353</v>
+        <v>0.01616149330414824</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02337889101673288</v>
+        <v>0.02311821737032843</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>398602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>366866</v>
+        <v>368556</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>430800</v>
+        <v>431801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3544116161834392</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3261939035463489</v>
+        <v>0.3276966351198159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3830395229460188</v>
+        <v>0.3839294563111773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>445</v>
@@ -5545,19 +5545,19 @@
         <v>465274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>430901</v>
+        <v>431013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>499083</v>
+        <v>500382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3699739927426757</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3426412510126362</v>
+        <v>0.3427302452214203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3968577308691625</v>
+        <v>0.3978911543229702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>825</v>
@@ -5566,19 +5566,19 @@
         <v>863877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>821144</v>
+        <v>814164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>911728</v>
+        <v>911544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3626268882493636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3446889800464989</v>
+        <v>0.3417592632739335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3827133268456349</v>
+        <v>0.3826359209969833</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>316464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286337</v>
+        <v>286068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>348231</v>
+        <v>345297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2813795232595986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2545924846735764</v>
+        <v>0.2543528967779938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3096245150510462</v>
+        <v>0.3070155428130336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -5616,19 +5616,19 @@
         <v>353359</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323063</v>
+        <v>321243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388553</v>
+        <v>384310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2809818450824373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2568915043425371</v>
+        <v>0.255444343206259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3089671658834468</v>
+        <v>0.3055934693932391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>630</v>
@@ -5637,19 +5637,19 @@
         <v>669823</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>625335</v>
+        <v>626617</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714728</v>
+        <v>715723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2811695916718604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2624949755399484</v>
+        <v>0.2630330814119058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3000192696982062</v>
+        <v>0.3004367520375651</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>256254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>228937</v>
+        <v>227334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285148</v>
+        <v>284788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2278443092011748</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2035557880207914</v>
+        <v>0.2021306804637711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2535355030432581</v>
+        <v>0.2532151642162619</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>257</v>
@@ -5687,19 +5687,19 @@
         <v>271355</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>241736</v>
+        <v>242518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>297912</v>
+        <v>301453</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2157741844386617</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1922225011864486</v>
+        <v>0.1928440825179795</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2368920335027265</v>
+        <v>0.2397078092189576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>497</v>
@@ -5708,19 +5708,19 @@
         <v>527608</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>484899</v>
+        <v>485551</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>567910</v>
+        <v>566449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2214725729553478</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2035447966087183</v>
+        <v>0.2038183081142246</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2383900149012194</v>
+        <v>0.2377766709146478</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>105232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86422</v>
+        <v>87827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126134</v>
+        <v>126675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09356576724741486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07684071880209757</v>
+        <v>0.07809028533480596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1121497881800531</v>
+        <v>0.1126308038550634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -5758,19 +5758,19 @@
         <v>121654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99481</v>
+        <v>101873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144569</v>
+        <v>145072</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09673644870520845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07910462479550137</v>
+        <v>0.08100693538163645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1149571989452343</v>
+        <v>0.1153572735648045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -5779,19 +5779,19 @@
         <v>226887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198784</v>
+        <v>201916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>258442</v>
+        <v>261529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09523954828664155</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08344312833058708</v>
+        <v>0.08475784954639851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1084852298755434</v>
+        <v>0.109781061941391</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>48135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35222</v>
+        <v>35109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63504</v>
+        <v>64060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04279878410837248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03131735072465978</v>
+        <v>0.03121700390939638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05646399290296126</v>
+        <v>0.05695778995497606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -5829,19 +5829,19 @@
         <v>45944</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32655</v>
+        <v>33684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61644</v>
+        <v>60496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03653352903101686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02596645453528055</v>
+        <v>0.02678443812244953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04901741748567077</v>
+        <v>0.04810506135289368</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -5850,19 +5850,19 @@
         <v>94079</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77454</v>
+        <v>75381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>116579</v>
+        <v>114723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03949139883678671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03251265073215578</v>
+        <v>0.03164264139966566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04893581005325674</v>
+        <v>0.04815684590589678</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>350827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>316025</v>
+        <v>320813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>379825</v>
+        <v>379679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3879048721814192</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3494245287764776</v>
+        <v>0.3547180822814531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4199671920136699</v>
+        <v>0.419805996226493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>352</v>
@@ -5975,19 +5975,19 @@
         <v>372186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>341423</v>
+        <v>338601</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403784</v>
+        <v>400743</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3716987884476867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3409759799211357</v>
+        <v>0.3381573427887155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.403254919876664</v>
+        <v>0.400217924340913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>695</v>
@@ -5996,19 +5996,19 @@
         <v>723013</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>678868</v>
+        <v>681886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>764400</v>
+        <v>768955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3793898382646592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3562252807214742</v>
+        <v>0.3578086716486912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4011065894519076</v>
+        <v>0.4034969898311945</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>269638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241677</v>
+        <v>238380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297169</v>
+        <v>295161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2981348259628244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.267219005476911</v>
+        <v>0.2635734621227951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3285759037948906</v>
+        <v>0.3263551156011515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>290</v>
@@ -6046,19 +6046,19 @@
         <v>305020</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277939</v>
+        <v>278229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337014</v>
+        <v>336343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3046209210067599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2775747892045342</v>
+        <v>0.2778650284076432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3365728187412818</v>
+        <v>0.3359029848954949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>549</v>
@@ -6067,19 +6067,19 @@
         <v>574658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>533523</v>
+        <v>533550</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616295</v>
+        <v>617154</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3015427633889085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2799574913195897</v>
+        <v>0.2799716782889953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3233912114486842</v>
+        <v>0.3238417086784756</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>223615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>196295</v>
+        <v>200538</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>250644</v>
+        <v>250769</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2472477297561368</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2170403712874143</v>
+        <v>0.221731783194994</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2771333630575806</v>
+        <v>0.2772718068970658</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>208</v>
@@ -6117,19 +6117,19 @@
         <v>223022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>199621</v>
+        <v>198014</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>252420</v>
+        <v>248884</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2227297885804175</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1993595944844579</v>
+        <v>0.1977547781201638</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2520890826497725</v>
+        <v>0.2485585012279183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>424</v>
@@ -6138,19 +6138,19 @@
         <v>446637</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>410956</v>
+        <v>408063</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>484044</v>
+        <v>482626</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2343654625711398</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2156427529158259</v>
+        <v>0.2141246307429229</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2539944330700041</v>
+        <v>0.2532504129115992</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>51676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39578</v>
+        <v>39312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66936</v>
+        <v>66599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05713753708882637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04376107310589306</v>
+        <v>0.0434671684679357</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07401057422980746</v>
+        <v>0.07363773865214843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -6188,19 +6188,19 @@
         <v>83313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65292</v>
+        <v>67480</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102730</v>
+        <v>103713</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08320358688400693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06520618271875103</v>
+        <v>0.06739181489489933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1025950336074432</v>
+        <v>0.1035775264754386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -6209,19 +6209,19 @@
         <v>134989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114213</v>
+        <v>115109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159747</v>
+        <v>158023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07083321469537407</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05993128731630638</v>
+        <v>0.06040160512825931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08382449319902595</v>
+        <v>0.08292022151040386</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>8660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3924</v>
+        <v>3870</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16101</v>
+        <v>15061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009575035010793237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004339178952534896</v>
+        <v>0.004278602733088796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01780317119806763</v>
+        <v>0.01665227182748098</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6259,19 +6259,19 @@
         <v>17770</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11036</v>
+        <v>10906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28396</v>
+        <v>27281</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01774691508112902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01102162946154571</v>
+        <v>0.0108921913351715</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02835901229959677</v>
+        <v>0.0272455028299349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -6280,19 +6280,19 @@
         <v>26430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17393</v>
+        <v>17421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38720</v>
+        <v>37032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01386872107991846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009126893173745848</v>
+        <v>0.009141192784895714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0203178852529696</v>
+        <v>0.01943178278059992</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>383455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>353718</v>
+        <v>354792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>410926</v>
+        <v>412012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4670754586026576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4308532681018512</v>
+        <v>0.432161039666293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5005362815479967</v>
+        <v>0.5018595906810643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>335</v>
@@ -6405,19 +6405,19 @@
         <v>351418</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322974</v>
+        <v>323799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>376900</v>
+        <v>381572</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4557601383518095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4188708398074515</v>
+        <v>0.4199410164584555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4888086347233156</v>
+        <v>0.4948673255236108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>703</v>
@@ -6426,19 +6426,19 @@
         <v>734873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>699648</v>
+        <v>688798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>779727</v>
+        <v>771740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4615951738107101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.439468884672766</v>
+        <v>0.4326536362506512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.489768756989262</v>
+        <v>0.4847521785925286</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>254817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231337</v>
+        <v>227192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>285531</v>
+        <v>280449</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.310385076770547</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2817843689738779</v>
+        <v>0.2767353687907663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3477960888486861</v>
+        <v>0.3416068268507459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -6476,19 +6476,19 @@
         <v>229007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203646</v>
+        <v>205064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>256607</v>
+        <v>257285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2970027142051311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2641117690450824</v>
+        <v>0.2659509225478321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3327974990591374</v>
+        <v>0.333677189536457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>458</v>
@@ -6497,19 +6497,19 @@
         <v>483824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>444523</v>
+        <v>452300</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>521392</v>
+        <v>526115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3039036731141122</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2792176921284444</v>
+        <v>0.284102491484676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3275014200541312</v>
+        <v>0.3304678502920503</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>142394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>121620</v>
+        <v>121351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>164094</v>
+        <v>165390</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1734462565152751</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1481419513152168</v>
+        <v>0.1478142674694682</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1998781688888112</v>
+        <v>0.2014563447359431</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>139</v>
@@ -6547,19 +6547,19 @@
         <v>152389</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>132028</v>
+        <v>132366</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175829</v>
+        <v>175354</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1976354497190369</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1712299482593318</v>
+        <v>0.1716681866819293</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2280353180201866</v>
+        <v>0.2274202981739917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>278</v>
@@ -6568,19 +6568,19 @@
         <v>294783</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>261965</v>
+        <v>263315</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>325708</v>
+        <v>331446</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1851616710775913</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1645478215200276</v>
+        <v>0.1653955528683582</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.204586503487848</v>
+        <v>0.2081907939248961</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>32329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21883</v>
+        <v>21685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03937874964694094</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02665533607781895</v>
+        <v>0.02641415809882979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05369565269989931</v>
+        <v>0.05384347824494626</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6618,19 +6618,19 @@
         <v>29353</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20039</v>
+        <v>19366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43765</v>
+        <v>41982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03806864663952016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.025989372618257</v>
+        <v>0.02511594341870108</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05675951113410491</v>
+        <v>0.05444739409297723</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -6639,19 +6639,19 @@
         <v>61682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47695</v>
+        <v>47152</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78269</v>
+        <v>78582</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0387442348980619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02995865813272665</v>
+        <v>0.0296177903553856</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04916324469259734</v>
+        <v>0.04935939476964562</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>7975</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3351</v>
+        <v>3198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16351</v>
+        <v>16243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009714458464579287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004081161869208491</v>
+        <v>0.003895833905628351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01991690157763745</v>
+        <v>0.01978506686109546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -6689,19 +6689,19 @@
         <v>8893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4074</v>
+        <v>4108</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16537</v>
+        <v>18807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01153305108450235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005283204550468778</v>
+        <v>0.005328040335057061</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0214476427316521</v>
+        <v>0.02439073413105098</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -6710,19 +6710,19 @@
         <v>16868</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9715</v>
+        <v>9763</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26592</v>
+        <v>26242</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0105952470995245</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006102450607887879</v>
+        <v>0.006132218305453491</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01670330606798417</v>
+        <v>0.0164834861288361</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>268306</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>244294</v>
+        <v>244449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>289201</v>
+        <v>291460</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.529516384988075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4821264979529365</v>
+        <v>0.4824322374973564</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5707523255943472</v>
+        <v>0.5752110224272969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -6835,19 +6835,19 @@
         <v>237934</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>215234</v>
+        <v>214473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260655</v>
+        <v>260369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4868087934163676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4403645908071641</v>
+        <v>0.4388085658311979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5332950647027002</v>
+        <v>0.5327103164414955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>476</v>
@@ -6856,19 +6856,19 @@
         <v>506241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>474880</v>
+        <v>472944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>540149</v>
+        <v>539093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5085473745083789</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4770442155339351</v>
+        <v>0.4750990437596169</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5426106380541925</v>
+        <v>0.541549778832572</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>119438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101694</v>
+        <v>102508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>140157</v>
+        <v>144020</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2357174818701837</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2006979901372421</v>
+        <v>0.2023041388658013</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2766062338934914</v>
+        <v>0.2842301597403483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>125</v>
@@ -6906,19 +6906,19 @@
         <v>138862</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>118759</v>
+        <v>119528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>162284</v>
+        <v>158559</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2841100261543222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2429790178722899</v>
+        <v>0.2445516346166748</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3320305443613198</v>
+        <v>0.324408454365621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>235</v>
@@ -6927,19 +6927,19 @@
         <v>258301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>228930</v>
+        <v>230701</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>286287</v>
+        <v>288493</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2594777486257901</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2299726622938358</v>
+        <v>0.2317524840157857</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2875916177415931</v>
+        <v>0.2898080045937991</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>91738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75835</v>
+        <v>74829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111735</v>
+        <v>109222</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1810488399709186</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1496645928003268</v>
+        <v>0.1476782061917855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2205137791126474</v>
+        <v>0.2155556256692433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -6977,19 +6977,19 @@
         <v>65012</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50778</v>
+        <v>49944</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80908</v>
+        <v>81295</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1330126722092532</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1038902359413009</v>
+        <v>0.1021854470189229</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1655361342206594</v>
+        <v>0.1663275527554502</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -6998,19 +6998,19 @@
         <v>156749</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>132835</v>
+        <v>135294</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182876</v>
+        <v>184220</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1574635506083105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1334405996911593</v>
+        <v>0.1359106041000181</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1837095883882636</v>
+        <v>0.1850597189782484</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>17440</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10398</v>
+        <v>9812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28165</v>
+        <v>28322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03441860061415046</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02052051951767712</v>
+        <v>0.01936395674474122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05558439663516931</v>
+        <v>0.0558956628766118</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -7048,19 +7048,19 @@
         <v>35424</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24737</v>
+        <v>24389</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48119</v>
+        <v>47982</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07247710501066358</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05061232869704895</v>
+        <v>0.04989934688924881</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09845152596160217</v>
+        <v>0.09817027330696908</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -7069,19 +7069,19 @@
         <v>52864</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39855</v>
+        <v>39692</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67374</v>
+        <v>68552</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05310495468289004</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04003630245601499</v>
+        <v>0.03987311377008466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06768062456064733</v>
+        <v>0.06886447139642016</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>9779</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4629</v>
+        <v>4343</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18702</v>
+        <v>17601</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01929869255667226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009136232109984134</v>
+        <v>0.008570794148166425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03690916070939809</v>
+        <v>0.03473725543678065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -7119,19 +7119,19 @@
         <v>11531</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6092</v>
+        <v>5995</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21121</v>
+        <v>22199</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02359140320939338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01246487304007224</v>
+        <v>0.01226644047283737</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04321325925630194</v>
+        <v>0.04541784974512937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -7140,19 +7140,19 @@
         <v>21309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12873</v>
+        <v>13064</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32826</v>
+        <v>33292</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02140637157463037</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01293137702496521</v>
+        <v>0.01312384213058206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03297574233025494</v>
+        <v>0.03344346280023892</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1401192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1341932</v>
+        <v>1342918</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1459364</v>
+        <v>1460841</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4174218853045493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3997681276970911</v>
+        <v>0.4000619826919906</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4347517276628825</v>
+        <v>0.4351917834492018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1356</v>
@@ -7265,19 +7265,19 @@
         <v>1426812</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1372441</v>
+        <v>1364659</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1491217</v>
+        <v>1486012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4054919662491198</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.390039859752735</v>
+        <v>0.3878284796943787</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.423795519504475</v>
+        <v>0.422316301569726</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2699</v>
@@ -7286,19 +7286,19 @@
         <v>2828004</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2746986</v>
+        <v>2748326</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2913988</v>
+        <v>2904474</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4113164290473483</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3995328474852816</v>
+        <v>0.3997278575587712</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4238223755657148</v>
+        <v>0.422438569747297</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>960358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>903811</v>
+        <v>906185</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1015391</v>
+        <v>1013328</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2860952045635992</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2692497977231013</v>
+        <v>0.2699570144969201</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3024898403781877</v>
+        <v>0.301875347181943</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>964</v>
@@ -7336,19 +7336,19 @@
         <v>1026248</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>969206</v>
+        <v>972655</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1076629</v>
+        <v>1082827</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2916539209614405</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2754428634227871</v>
+        <v>0.276423094543125</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3059719048655184</v>
+        <v>0.3077332295512845</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1872</v>
@@ -7357,19 +7357,19 @@
         <v>1986605</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1915857</v>
+        <v>1908696</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2070413</v>
+        <v>2067700</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2889400268675494</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2786500970572289</v>
+        <v>0.2776085116561995</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3011293572011706</v>
+        <v>0.3007346968268539</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>714001</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>665733</v>
+        <v>668373</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>760444</v>
+        <v>764389</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2127042517243115</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1983252204097593</v>
+        <v>0.1991114853016015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2265401065886145</v>
+        <v>0.2277152252309303</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>665</v>
@@ -7407,19 +7407,19 @@
         <v>711777</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>662771</v>
+        <v>663347</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>765933</v>
+        <v>757577</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2022828862953442</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1883556337554018</v>
+        <v>0.1885194277130338</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2176739305019169</v>
+        <v>0.2152991809529165</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1344</v>
@@ -7428,19 +7428,19 @@
         <v>1425777</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1353433</v>
+        <v>1357311</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1494388</v>
+        <v>1495701</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2073708382726998</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1968487771632705</v>
+        <v>0.1974128271948803</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2173499469217915</v>
+        <v>0.2175408108458588</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>206677</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>181394</v>
+        <v>180279</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>239282</v>
+        <v>236333</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06157013263078666</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05403826979573011</v>
+        <v>0.05370607008113352</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07128319953054386</v>
+        <v>0.0704048899593222</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>254</v>
@@ -7478,19 +7478,19 @@
         <v>269744</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>239049</v>
+        <v>239139</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>304620</v>
+        <v>303988</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07665982347216185</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06793625097086772</v>
+        <v>0.06796198613915311</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08657139564325553</v>
+        <v>0.08639171986299619</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>449</v>
@@ -7499,19 +7499,19 @@
         <v>476421</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>437999</v>
+        <v>436094</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>520676</v>
+        <v>523102</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06929268690283541</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06370441366228984</v>
+        <v>0.06342728447674227</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07572922475922844</v>
+        <v>0.07608209901428248</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>74549</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57717</v>
+        <v>57836</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92679</v>
+        <v>93340</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02220852577675331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.017194029920128</v>
+        <v>0.0172295123456217</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02760964429038537</v>
+        <v>0.0278064869220751</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>76</v>
@@ -7549,19 +7549,19 @@
         <v>84138</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68391</v>
+        <v>67306</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>105358</v>
+        <v>105290</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02391140302193365</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01943624165628506</v>
+        <v>0.01912799718590237</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02994220199444943</v>
+        <v>0.02992288256903684</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -7570,19 +7570,19 @@
         <v>158687</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>135633</v>
+        <v>134701</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>187412</v>
+        <v>185383</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02308001890956713</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01972700571581584</v>
+        <v>0.01959153576641338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02725798805259097</v>
+        <v>0.02696286301346857</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>174275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150936</v>
+        <v>153167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>199363</v>
+        <v>199664</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3498172563123137</v>
+        <v>0.3498172563123138</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.302969304162987</v>
+        <v>0.3074485298437394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4001752547862735</v>
+        <v>0.4007798671541252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>286</v>
@@ -7935,19 +7935,19 @@
         <v>220661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198837</v>
+        <v>197496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245428</v>
+        <v>243790</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.356387771618928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3211390657958894</v>
+        <v>0.3189736528441605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3963884056041239</v>
+        <v>0.3937424203617296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>432</v>
@@ -7956,19 +7956,19 @@
         <v>394937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>361000</v>
+        <v>361815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427287</v>
+        <v>428749</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3534581981154376</v>
+        <v>0.3534581981154377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3230860952852347</v>
+        <v>0.3238149302191161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3824109427707679</v>
+        <v>0.3837195578989869</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>141946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120363</v>
+        <v>121333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164210</v>
+        <v>165571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2849246893454068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2416005333376728</v>
+        <v>0.24354778194063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3296141816251815</v>
+        <v>0.3323453647357984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -8006,19 +8006,19 @@
         <v>162340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144592</v>
+        <v>143935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182121</v>
+        <v>182014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2621934113698668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.233528791738715</v>
+        <v>0.2324683491115939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2941416550353327</v>
+        <v>0.2939690987217893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -8027,19 +8027,19 @@
         <v>304286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>274177</v>
+        <v>274196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>334051</v>
+        <v>335178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2723285296292492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2453817573236278</v>
+        <v>0.2453987736064836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2989667737232141</v>
+        <v>0.29997549670111</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>97244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79306</v>
+        <v>78334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118861</v>
+        <v>118168</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1951956728736424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1591886712163574</v>
+        <v>0.1572378372347191</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2385856646281427</v>
+        <v>0.2371945485168285</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>184</v>
@@ -8077,19 +8077,19 @@
         <v>126444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110417</v>
+        <v>110883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145594</v>
+        <v>147700</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2042175159737144</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1783332163978752</v>
+        <v>0.1790864636798787</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2351473306911243</v>
+        <v>0.2385490241328534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>273</v>
@@ -8098,19 +8098,19 @@
         <v>223688</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198656</v>
+        <v>196707</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252453</v>
+        <v>252015</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2001949772130158</v>
+        <v>0.2001949772130159</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1777917768912828</v>
+        <v>0.1760473918057254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2259392035584083</v>
+        <v>0.2255471979321839</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>51396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39223</v>
+        <v>38858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66876</v>
+        <v>67233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1031654090728729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07873203902228657</v>
+        <v>0.07799818189884497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1342387754484774</v>
+        <v>0.1349553622075808</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -8148,19 +8148,19 @@
         <v>69817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56017</v>
+        <v>56176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84873</v>
+        <v>85803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1127612932091464</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09047311231089147</v>
+        <v>0.09072911128836826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1370769700826879</v>
+        <v>0.1385790621839696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -8169,19 +8169,19 @@
         <v>121213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102915</v>
+        <v>103421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146204</v>
+        <v>146972</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.108482808707346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0921067460440632</v>
+        <v>0.0925589835360973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1308487573857247</v>
+        <v>0.1315359756814415</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>33327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23921</v>
+        <v>24056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46184</v>
+        <v>45375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06689697239576403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04801578233597534</v>
+        <v>0.04828745001058535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09270318608831915</v>
+        <v>0.09108015200411351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -8219,19 +8219,19 @@
         <v>39899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31021</v>
+        <v>31485</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52220</v>
+        <v>51559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06444000782834441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05010120505751714</v>
+        <v>0.05085053572647323</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08434030983479288</v>
+        <v>0.08327159156873962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -8240,19 +8240,19 @@
         <v>73226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60184</v>
+        <v>58324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90853</v>
+        <v>88353</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06553548633495129</v>
+        <v>0.06553548633495131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05386337344853855</v>
+        <v>0.0521985977549016</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08131110398498492</v>
+        <v>0.07907393483195975</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>414614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>378429</v>
+        <v>378002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>447056</v>
+        <v>446930</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4333932138434511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3955698430467378</v>
+        <v>0.3951230128417291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.467304517842635</v>
+        <v>0.467173097016051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>599</v>
@@ -8365,19 +8365,19 @@
         <v>438933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>408226</v>
+        <v>412471</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>467803</v>
+        <v>467063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3950592460474539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3674219047597791</v>
+        <v>0.3712424115103635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4210438645699731</v>
+        <v>0.4203775190078837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>958</v>
@@ -8386,19 +8386,19 @@
         <v>853546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>805599</v>
+        <v>809704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>895290</v>
+        <v>900177</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4127951294513899</v>
+        <v>0.4127951294513898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3896068370810875</v>
+        <v>0.3915919262469356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4329830931704402</v>
+        <v>0.4353467094630835</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>345799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313745</v>
+        <v>317494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>376028</v>
+        <v>385137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3614618966990497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3279551307840329</v>
+        <v>0.331874607621448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3930601661045752</v>
+        <v>0.4025812778688391</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>593</v>
@@ -8436,19 +8436,19 @@
         <v>411906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>383660</v>
+        <v>385674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>444402</v>
+        <v>442292</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3707339866550251</v>
+        <v>0.370733986655025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3453113045285056</v>
+        <v>0.3471238170953629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3999817420981606</v>
+        <v>0.398083150992362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>931</v>
@@ -8457,19 +8457,19 @@
         <v>757705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719165</v>
+        <v>716961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>799235</v>
+        <v>801624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.366444091404809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3478050936010255</v>
+        <v>0.3467393012150828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3865287071968301</v>
+        <v>0.3876843505917012</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>125966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105847</v>
+        <v>104704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151018</v>
+        <v>150482</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1316711928289717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1106416133337959</v>
+        <v>0.1094468536857362</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1578577962986089</v>
+        <v>0.1572978159749479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>285</v>
@@ -8507,19 +8507,19 @@
         <v>181881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>160854</v>
+        <v>161662</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>204880</v>
+        <v>204513</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1637012313603229</v>
+        <v>0.1637012313603228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1447761636447045</v>
+        <v>0.1455033018197351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1844015241034303</v>
+        <v>0.1840713164602188</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>422</v>
@@ -8528,19 +8528,19 @@
         <v>307847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278433</v>
+        <v>276973</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>338453</v>
+        <v>338499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1488819715373171</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1346567932920317</v>
+        <v>0.1339506514700412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1636836606003553</v>
+        <v>0.1637060738670895</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>44093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31908</v>
+        <v>32517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59235</v>
+        <v>57846</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0460898475738963</v>
+        <v>0.04608984757389631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03335329999753767</v>
+        <v>0.03398946244059781</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06191759316066005</v>
+        <v>0.06046589167209607</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -8578,19 +8578,19 @@
         <v>61597</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49542</v>
+        <v>49896</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75486</v>
+        <v>74379</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05543980578799489</v>
+        <v>0.05543980578799488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04458960386734228</v>
+        <v>0.04490893037737502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0679405574046234</v>
+        <v>0.06694457203347423</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -8599,19 +8599,19 @@
         <v>105689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88406</v>
+        <v>88488</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126252</v>
+        <v>125519</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05111388342067236</v>
+        <v>0.05111388342067237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04275537781051628</v>
+        <v>0.04279480362778616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06105822407720996</v>
+        <v>0.06070386360118449</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>26197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17290</v>
+        <v>16140</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40465</v>
+        <v>39616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02738384905463126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01807327020120563</v>
+        <v>0.01687081122145941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04229778833508764</v>
+        <v>0.04141058391531219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -8649,19 +8649,19 @@
         <v>16739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10530</v>
+        <v>11025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24690</v>
+        <v>24336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01506573014920331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009477709330109085</v>
+        <v>0.009922673507043345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02222231268021964</v>
+        <v>0.02190358509740489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -8670,19 +8670,19 @@
         <v>42936</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30446</v>
+        <v>31183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57263</v>
+        <v>57974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02076492418581179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01472454071784147</v>
+        <v>0.01508069462414004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02769356107044264</v>
+        <v>0.0280374032318774</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>599518</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>565824</v>
+        <v>566312</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>635413</v>
+        <v>631069</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5750596424900658</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5427404205280291</v>
+        <v>0.5432089576678694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6094908299268993</v>
+        <v>0.6053237182565258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>801</v>
@@ -8795,19 +8795,19 @@
         <v>578383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>550320</v>
+        <v>554246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>608596</v>
+        <v>606181</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5540290097170215</v>
+        <v>0.5540290097170217</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5271480363816108</v>
+        <v>0.5309087842451214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5829698092795087</v>
+        <v>0.580656390227662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1349</v>
@@ -8816,19 +8816,19 @@
         <v>1177901</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1131330</v>
+        <v>1134408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1219693</v>
+        <v>1217215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5645371342007111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5422170268964861</v>
+        <v>0.5436921919815544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5845673508346765</v>
+        <v>0.5833793290863141</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>323792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>291202</v>
+        <v>291658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353382</v>
+        <v>355887</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3105823365117953</v>
+        <v>0.3105823365117954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2793217109025325</v>
+        <v>0.2797595373134346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3389656102049098</v>
+        <v>0.3413686146595332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>501</v>
@@ -8866,19 +8866,19 @@
         <v>335017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>306012</v>
+        <v>307896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359668</v>
+        <v>358611</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3209103867644359</v>
+        <v>0.320910386764436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2931263816726077</v>
+        <v>0.2949312820038816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3445238035429625</v>
+        <v>0.343510925627437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>848</v>
@@ -8887,19 +8887,19 @@
         <v>658809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>620178</v>
+        <v>618185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>700222</v>
+        <v>697401</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3157498935496215</v>
+        <v>0.3157498935496216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2972353594979439</v>
+        <v>0.296280105741188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3355982663194735</v>
+        <v>0.3342461470688783</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>96101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78564</v>
+        <v>78987</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116039</v>
+        <v>116921</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09218087239086484</v>
+        <v>0.09218087239086485</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07535878338781375</v>
+        <v>0.07576478450175052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1113055031353068</v>
+        <v>0.1121515068138002</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -8937,19 +8937,19 @@
         <v>87446</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74248</v>
+        <v>72092</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102759</v>
+        <v>102568</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08376424214284385</v>
+        <v>0.08376424214284386</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07112157050012123</v>
+        <v>0.0690567850834337</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09843188919869782</v>
+        <v>0.09824922578423007</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>246</v>
@@ -8958,19 +8958,19 @@
         <v>183548</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>160207</v>
+        <v>160104</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>207616</v>
+        <v>208179</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08796967900885919</v>
+        <v>0.0879696790088592</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07678312626835532</v>
+        <v>0.07673350928162068</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09950510667177195</v>
+        <v>0.09977478638301845</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>13693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8220</v>
+        <v>7475</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22350</v>
+        <v>21911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01313437806834709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00788490200717375</v>
+        <v>0.007169703191123182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02143833634121898</v>
+        <v>0.02101756739348208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -9008,19 +9008,19 @@
         <v>27752</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20188</v>
+        <v>20195</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36974</v>
+        <v>37857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02658347054221197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0193380506730291</v>
+        <v>0.01934465238593003</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0354171276239463</v>
+        <v>0.03626274024019555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -9029,19 +9029,19 @@
         <v>41445</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30771</v>
+        <v>32008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54984</v>
+        <v>53389</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01986352352810382</v>
+        <v>0.01986352352810383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01474753834542214</v>
+        <v>0.01534049442116525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02635247280427823</v>
+        <v>0.02558777859004414</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>9427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4853</v>
+        <v>4523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18063</v>
+        <v>18156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009042770538926917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004655449519059648</v>
+        <v>0.004338061697885124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01732585224074039</v>
+        <v>0.01741554737884161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -9079,19 +9079,19 @@
         <v>15360</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10084</v>
+        <v>10143</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23080</v>
+        <v>22510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01471289083348661</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009659098471643923</v>
+        <v>0.009715614715640234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02210779952104953</v>
+        <v>0.02156227163597104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -9100,19 +9100,19 @@
         <v>24787</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17212</v>
+        <v>17482</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34120</v>
+        <v>35341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01187976971270434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008249035972495584</v>
+        <v>0.008378825978160094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01635275504574232</v>
+        <v>0.01693815104398443</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>564235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532689</v>
+        <v>528191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>595226</v>
+        <v>598600</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5801817577033699</v>
+        <v>0.5801817577033698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5477440721936293</v>
+        <v>0.54311958214378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6120490959801339</v>
+        <v>0.6155180193025132</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>745</v>
@@ -9225,19 +9225,19 @@
         <v>548695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>522138</v>
+        <v>520597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>575251</v>
+        <v>575124</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6059816711438772</v>
+        <v>0.6059816711438771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5766517306173639</v>
+        <v>0.5749495669877479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6353099994463927</v>
+        <v>0.6351695722086134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1263</v>
@@ -9246,19 +9246,19 @@
         <v>1112930</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1068345</v>
+        <v>1070073</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1153228</v>
+        <v>1157711</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5926211536040891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5688802579990234</v>
+        <v>0.5698001661288052</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6140790778709394</v>
+        <v>0.6164664242557886</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>267352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241718</v>
+        <v>239496</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297514</v>
+        <v>302387</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2749083193217851</v>
+        <v>0.274908319321785</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2485500200486629</v>
+        <v>0.2462648716443024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3059221697271703</v>
+        <v>0.3109328668356449</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>399</v>
@@ -9296,19 +9296,19 @@
         <v>231905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210707</v>
+        <v>211536</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>256969</v>
+        <v>256055</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2561167555136276</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2327058180448923</v>
+        <v>0.2336210510865934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2837976884853022</v>
+        <v>0.2827884244270927</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>684</v>
@@ -9317,19 +9317,19 @@
         <v>499257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>464041</v>
+        <v>459045</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>536579</v>
+        <v>536239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2658479904047008</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2470958185993279</v>
+        <v>0.2444358433179251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2857216813737847</v>
+        <v>0.2855404543192244</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>87793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71723</v>
+        <v>69957</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108427</v>
+        <v>106585</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0902738070791558</v>
+        <v>0.09027380707915579</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07374965158553999</v>
+        <v>0.07193469680675937</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1114916450770402</v>
+        <v>0.109597412889313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -9367,19 +9367,19 @@
         <v>58958</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46552</v>
+        <v>46687</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74096</v>
+        <v>72872</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06511396649667445</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0514125720412731</v>
+        <v>0.05156150088864143</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08183212341261234</v>
+        <v>0.08047990501061607</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>172</v>
@@ -9388,19 +9388,19 @@
         <v>146751</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125534</v>
+        <v>126580</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>169570</v>
+        <v>169847</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07814302150399634</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06684534463989888</v>
+        <v>0.06740228272535956</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0902936504909128</v>
+        <v>0.09044161658273234</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>41911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29286</v>
+        <v>29510</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60702</v>
+        <v>58589</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04309556400785283</v>
+        <v>0.04309556400785282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03011390987838796</v>
+        <v>0.0303436895538402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06241776014363713</v>
+        <v>0.06024442680222881</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -9438,19 +9438,19 @@
         <v>54253</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42501</v>
+        <v>41423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71913</v>
+        <v>69248</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0599173552036374</v>
+        <v>0.05991735520363738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04693826461927199</v>
+        <v>0.0457482084477884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07942131821836899</v>
+        <v>0.07647740106742863</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -9459,19 +9459,19 @@
         <v>96164</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79736</v>
+        <v>77311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119276</v>
+        <v>117954</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05120616953085658</v>
+        <v>0.05120616953085659</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04245838268704944</v>
+        <v>0.04116721211794316</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06351270924537575</v>
+        <v>0.0628091112308776</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>11223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6322</v>
+        <v>5917</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19816</v>
+        <v>19480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01154055188783645</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006500859675663322</v>
+        <v>0.006083753909366964</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0203765689143058</v>
+        <v>0.02003060044791288</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -9509,19 +9509,19 @@
         <v>11654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6545</v>
+        <v>6710</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20997</v>
+        <v>20476</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01287025164218349</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007228248769753595</v>
+        <v>0.007410536358269615</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02318899395702075</v>
+        <v>0.02261337684517115</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -9530,19 +9530,19 @@
         <v>22877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14868</v>
+        <v>14951</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33952</v>
+        <v>34071</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01218166495635714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007916971230207282</v>
+        <v>0.007961135235056788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01807912414202615</v>
+        <v>0.01814214837255952</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1752641</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1686705</v>
+        <v>1690963</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1820173</v>
+        <v>1821480</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5050980869553769</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4860956232474132</v>
+        <v>0.4873228640918679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5245603200388513</v>
+        <v>0.524936891504882</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2431</v>
@@ -9655,19 +9655,19 @@
         <v>1786673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1731186</v>
+        <v>1734835</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1839897</v>
+        <v>1842320</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4855563913552874</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4704769515603154</v>
+        <v>0.4714686925412944</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.50002104368767</v>
+        <v>0.5006793030147388</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4002</v>
@@ -9676,19 +9676,19 @@
         <v>3539314</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3455443</v>
+        <v>3454413</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3621655</v>
+        <v>3624131</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4950406047361843</v>
+        <v>0.4950406047361845</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4833096337972001</v>
+        <v>0.4831654983046693</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5065576027558973</v>
+        <v>0.5069038589879479</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1078890</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1021573</v>
+        <v>1022907</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1139503</v>
+        <v>1143150</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3109278947301705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2944097147586952</v>
+        <v>0.2947942244895057</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3283963342947256</v>
+        <v>0.3294471592412748</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1720</v>
@@ -9726,19 +9726,19 @@
         <v>1141168</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1093129</v>
+        <v>1089733</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1191115</v>
+        <v>1189530</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3101302902896306</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2970751075923409</v>
+        <v>0.2961520568661501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3237043150812682</v>
+        <v>0.3232734209913575</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2818</v>
@@ -9747,19 +9747,19 @@
         <v>2220057</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2144392</v>
+        <v>2139175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2291944</v>
+        <v>2294282</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3105173933774301</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2999341363221209</v>
+        <v>0.2992044453340342</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3205721534558306</v>
+        <v>0.3208991076080787</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>407104</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>367078</v>
+        <v>367722</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>446857</v>
+        <v>449019</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.117324328156228</v>
+        <v>0.1173243281562279</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1057890918646989</v>
+        <v>0.1059745834152895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1287809010690551</v>
+        <v>0.1294038609525527</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>693</v>
@@ -9797,19 +9797,19 @@
         <v>454729</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>418803</v>
+        <v>421349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>487032</v>
+        <v>489283</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1235798742681996</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1138161824379856</v>
+        <v>0.1145081959040643</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1323586471324385</v>
+        <v>0.1329703144508371</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1113</v>
@@ -9818,19 +9818,19 @@
         <v>861833</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>800815</v>
+        <v>809988</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>908874</v>
+        <v>915596</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1205438565472139</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1120091924495559</v>
+        <v>0.1132923047127653</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1271233024924379</v>
+        <v>0.1280635566407698</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>151093</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>128042</v>
+        <v>124814</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>179815</v>
+        <v>176425</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04354376198614422</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03690084314454654</v>
+        <v>0.03597044844524642</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05182121272302486</v>
+        <v>0.05084435856993073</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>311</v>
@@ -9868,19 +9868,19 @@
         <v>213419</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>189123</v>
+        <v>189601</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>240761</v>
+        <v>240076</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05800002312090517</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05139705106979624</v>
+        <v>0.05152703249550999</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06543062267823765</v>
+        <v>0.06524453505451351</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>465</v>
@@ -9889,19 +9889,19 @@
         <v>364512</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>331642</v>
+        <v>331334</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>407048</v>
+        <v>403884</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05098393464537834</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04638645697203919</v>
+        <v>0.04634339848500055</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05693338341299346</v>
+        <v>0.0564908759962895</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>80175</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>64185</v>
+        <v>62898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>100148</v>
+        <v>98925</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0231059281720805</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01849764896961904</v>
+        <v>0.01812664450503257</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02886191762194611</v>
+        <v>0.02850932904386445</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>124</v>
@@ -9939,19 +9939,19 @@
         <v>83651</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>70015</v>
+        <v>70611</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99435</v>
+        <v>100326</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02273342096597734</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01902766139539167</v>
+        <v>0.01918967862626838</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02702297220063419</v>
+        <v>0.02726515413227484</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>211</v>
@@ -9960,19 +9960,19 @@
         <v>163826</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>144720</v>
+        <v>141219</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>192832</v>
+        <v>188810</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02291421069379338</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02024189362804494</v>
+        <v>0.01975223250066205</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02697120301101281</v>
+        <v>0.02640861275666858</v>
       </c>
     </row>
     <row r="33">
